--- a/config/config-sra-test.xlsx
+++ b/config/config-sra-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih-my.sharepoint.com/personal/cherikhsr_nih_gov/Documents/cidc/pycharm-workspace/cidc_atac/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherikhsr/Documents/GitHub/cidc_atac/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="13_ncr:1_{1B1FD6D5-973C-3E41-809E-7332B58C6084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DAAE3EE-9F61-5B4F-A58E-0964AD57F8A5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A89C7-01B8-454A-A47E-52F3212D4439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="30900" windowHeight="26500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1862,10 +1862,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2737,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2798,7 +2794,7 @@
         <v>109</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">

--- a/config/config-sra-test.xlsx
+++ b/config/config-sra-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherikhsr/Documents/GitHub/cidc_atac/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43A89C7-01B8-454A-A47E-52F3212D4439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D2366-DDDB-8F40-88CE-1131E549999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="30900" windowHeight="26500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="30180" windowHeight="26500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -1441,15 +1441,6 @@
     </r>
   </si>
   <si>
-    <t>/home/cherikhsr/atac_test_output</t>
-  </si>
-  <si>
-    <t>/home/cherikhsr/atac_test_output/analysis</t>
-  </si>
-  <si>
-    <t>annot genome input bam rseqc fastqc tmp cutadapt rqual_filter progress benchmark log info cnv peak chipqc</t>
-  </si>
-  <si>
     <t>peak_mode</t>
   </si>
   <si>
@@ -1645,6 +1636,15 @@
   </si>
   <si>
     <t>Fastq File name (uncompressed or gzip compressed); For local files use path from root; for Amazon S3 files, use s3://&lt;bucket&gt;/&lt;key&gt;; for SRA runs, use the accession number (i.e. SRR2057712). Files separated by semi-colons will be merged before processing. If using SRR that are paired end copy the same accession into the fastq_file_2 column as well</t>
+  </si>
+  <si>
+    <t>/home/cherikhsr_nih_gov/atac_test_output</t>
+  </si>
+  <si>
+    <t>/home/cherikhsr_nih_gov/atac_test_output/analysis</t>
+  </si>
+  <si>
+    <t>benchmark log info progress genome annot input cutadapt rqual_filter bam rseqc fastqc cnv peak chipqc</t>
   </si>
 </sst>
 </file>
@@ -2206,10 +2206,10 @@
         <v>60</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>61</v>
@@ -2263,10 +2263,10 @@
         <v>37</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>39</v>
@@ -2278,7 +2278,7 @@
         <v>41</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>20</v>
@@ -2355,7 +2355,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2363,27 +2363,27 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2391,27 +2391,27 @@
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2419,26 +2419,26 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2446,26 +2446,26 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2473,26 +2473,26 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2500,16 +2500,16 @@
         <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2733,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2763,7 +2763,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2774,7 +2774,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2821,21 +2821,21 @@
     </row>
     <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C9" s="6">
         <v>73</v>
@@ -2843,10 +2843,10 @@
     </row>
     <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C10" s="6">
         <v>37</v>
@@ -2854,10 +2854,10 @@
     </row>
     <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C11" s="6">
         <v>0.05</v>
@@ -2893,7 +2893,7 @@
         <v>139</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2975,13 +2975,13 @@
     </row>
     <row r="22" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>157</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3030,7 +3030,7 @@
         <v>124</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -3054,8 +3054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3084,7 +3084,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">

--- a/config/config-sra-test.xlsx
+++ b/config/config-sra-test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherikhsr/Documents/GitHub/cidc_atac/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D2366-DDDB-8F40-88CE-1131E549999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F60052-AAAC-2D4D-AFA5-0D9B4E59C423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="30180" windowHeight="26500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="30180" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="195">
   <si>
     <t>&lt;string&gt;</t>
   </si>
@@ -1577,24 +1577,6 @@
     <t>orf8</t>
   </si>
   <si>
-    <t>SRR16579104</t>
-  </si>
-  <si>
-    <t>SRR16579105</t>
-  </si>
-  <si>
-    <t>SRR16579106</t>
-  </si>
-  <si>
-    <t>SRR16579107</t>
-  </si>
-  <si>
-    <t>SRR16579108</t>
-  </si>
-  <si>
-    <t>SRR16579109</t>
-  </si>
-  <si>
     <t>A549</t>
   </si>
   <si>
@@ -1645,6 +1627,42 @@
   </si>
   <si>
     <t>benchmark log info progress genome annot input cutadapt rqual_filter bam rseqc fastqc cnv peak chipqc</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579104_1.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579105_1.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579106_1.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579107_1.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579108_1.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579109_1.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579104_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579105_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579106_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579107_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579108_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579109_2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2172,7 +2190,7 @@
     <col min="13" max="13" width="86.6640625" customWidth="1"/>
     <col min="14" max="14" width="85.1640625" customWidth="1"/>
     <col min="15" max="15" width="67.33203125" customWidth="1"/>
-    <col min="16" max="16" width="47.1640625" customWidth="1"/>
+    <col min="16" max="16" width="57.1640625" customWidth="1"/>
     <col min="17" max="17" width="44.1640625" customWidth="1"/>
     <col min="18" max="18" width="42" customWidth="1"/>
   </cols>
@@ -2206,7 +2224,7 @@
         <v>60</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>158</v>
@@ -2263,10 +2281,10 @@
         <v>37</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>39</v>
@@ -2278,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>20</v>
@@ -2355,7 +2373,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2369,10 +2387,10 @@
         <v>164</v>
       </c>
       <c r="O4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P4" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="26"/>
     </row>
@@ -2383,7 +2401,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2397,10 +2415,10 @@
         <v>164</v>
       </c>
       <c r="O5" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="P5" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="26"/>
     </row>
@@ -2411,7 +2429,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2425,10 +2443,10 @@
         <v>166</v>
       </c>
       <c r="O6" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -2438,7 +2456,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2452,10 +2470,10 @@
         <v>166</v>
       </c>
       <c r="O7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -2465,7 +2483,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2479,10 +2497,10 @@
         <v>168</v>
       </c>
       <c r="O8" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -2492,7 +2510,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2506,10 +2524,10 @@
         <v>168</v>
       </c>
       <c r="O9" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2733,7 +2751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2763,7 +2781,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2774,7 +2792,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2827,7 +2845,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2843,10 +2861,10 @@
     </row>
     <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C10" s="6">
         <v>37</v>
@@ -2893,7 +2911,7 @@
         <v>139</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3030,7 +3048,7 @@
         <v>124</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -3084,7 +3102,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">

--- a/config/config-sra-test.xlsx
+++ b/config/config-sra-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherikhsr/Documents/GitHub/cidc_atac/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F60052-AAAC-2D4D-AFA5-0D9B4E59C423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A232E-4301-8941-8ADE-F69D7FC353A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="30180" windowHeight="26500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="30180" windowHeight="26500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -1046,25 +1046,6 @@
     <t>cloud_prog</t>
   </si>
   <si>
-    <t>save_unmapped</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Flag to save un aligned reads in a fastq file. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Available options: 0;1   (REQUIRED)</t>
-    </r>
-  </si>
-  <si>
     <t>bwa_prog</t>
   </si>
   <si>
@@ -1663,6 +1644,25 @@
   </si>
   <si>
     <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579109_2.fastq.gz</t>
+  </si>
+  <si>
+    <t>run_genome_track</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Generate genomic track files and images. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Available options: 0;1   (REQUIRED)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2171,7 +2171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -2224,10 +2224,10 @@
         <v>60</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>61</v>
@@ -2281,10 +2281,10 @@
         <v>37</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>39</v>
@@ -2296,7 +2296,7 @@
         <v>41</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>20</v>
@@ -2368,12 +2368,12 @@
     </row>
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2381,27 +2381,27 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="26"/>
     </row>
     <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2409,27 +2409,27 @@
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2437,26 +2437,26 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2464,26 +2464,26 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2491,26 +2491,26 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2518,16 +2518,16 @@
         <v>2</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2751,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2781,7 +2781,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -2792,7 +2792,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2800,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>119</v>
+        <v>194</v>
       </c>
       <c r="C6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2831,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -2839,21 +2839,21 @@
     </row>
     <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="6">
         <v>73</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C10" s="6">
         <v>37</v>
@@ -2872,10 +2872,10 @@
     </row>
     <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="6">
         <v>0.05</v>
@@ -2897,10 +2897,10 @@
         <v>117</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2908,10 +2908,10 @@
         <v>55</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2919,10 +2919,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2930,10 +2930,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2941,21 +2941,21 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2963,10 +2963,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2974,10 +2974,10 @@
         <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2985,29 +2985,29 @@
         <v>76</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" s="11"/>
     </row>
@@ -3016,7 +3016,7 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C25" s="6"/>
     </row>
@@ -3036,19 +3036,19 @@
         <v>114</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -3102,7 +3102,7 @@
         <v>81</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">

--- a/config/config-sra-test.xlsx
+++ b/config/config-sra-test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherikhsr/Documents/GitHub/cidc_atac/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A232E-4301-8941-8ADE-F69D7FC353A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB05C54E-7B28-5342-8E4C-1647257D56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="30180" windowHeight="26500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1607,9 +1607,6 @@
     <t>/home/cherikhsr_nih_gov/atac_test_output/analysis</t>
   </si>
   <si>
-    <t>benchmark log info progress genome annot input cutadapt rqual_filter bam rseqc fastqc cnv peak chipqc</t>
-  </si>
-  <si>
     <t>gs://chips2-test-data/atac-test-sample-fastq/SRR16579104_1.fastq.gz</t>
   </si>
   <si>
@@ -1663,6 +1660,9 @@
       </rPr>
       <t>Available options: 0;1   (REQUIRED)</t>
     </r>
+  </si>
+  <si>
+    <t>benchmark log info progress genome annot input cutadapt rqual_filter bam rseqc fastqc cnv peak chipqc ptw track</t>
   </si>
 </sst>
 </file>
@@ -2387,10 +2387,10 @@
         <v>162</v>
       </c>
       <c r="O4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="26"/>
     </row>
@@ -2415,10 +2415,10 @@
         <v>162</v>
       </c>
       <c r="O5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="26"/>
     </row>
@@ -2443,10 +2443,10 @@
         <v>164</v>
       </c>
       <c r="O6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -2470,10 +2470,10 @@
         <v>164</v>
       </c>
       <c r="O7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -2497,10 +2497,10 @@
         <v>166</v>
       </c>
       <c r="O8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -2524,10 +2524,10 @@
         <v>166</v>
       </c>
       <c r="O9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -2752,14 +2752,14 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="77.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.83203125" customWidth="1"/>
+    <col min="3" max="3" width="83.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -2792,7 +2792,7 @@
         <v>116</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -2817,10 +2817,10 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>193</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>194</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>

--- a/config/config-sra-test.xlsx
+++ b/config/config-sra-test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherikhsr/Documents/GitHub/cidc_atac/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB05C54E-7B28-5342-8E4C-1647257D56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50EB6F3-4078-874D-8540-2714E219253F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="500" windowWidth="30180" windowHeight="26500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="198">
   <si>
     <t>&lt;string&gt;</t>
   </si>
@@ -1663,6 +1663,49 @@
   </si>
   <si>
     <t>benchmark log info progress genome annot input cutadapt rqual_filter bam rseqc fastqc cnv peak chipqc ptw track</t>
+  </si>
+  <si>
+    <t>track_region</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Genomic region to plot genome tracks over. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example: chr1:500000-900000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(REQUIRED if run_genome_track)</t>
+    </r>
+  </si>
+  <si>
+    <t>chr1:700000-900000</t>
   </si>
 </sst>
 </file>
@@ -2749,10 +2792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2881,184 +2924,195 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="6">
-        <v>110</v>
+        <v>196</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>124</v>
+        <v>137</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C29" s="6">
         <v>20</v>
       </c>
     </row>
